--- a/common/common/file/doc/AnalysisDataDocInit.xlsx
+++ b/common/common/file/doc/AnalysisDataDocInit.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA76009-69C0-4D5B-9715-1C8BE0DF176D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CAC6A7-3D53-4BF5-A84C-9A4BA4AE6F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="75" windowWidth="23610" windowHeight="12855" tabRatio="802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="31" r:id="rId1"/>
@@ -2054,7 +2054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2083,13 +2083,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2107,14 +2107,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2148,13 +2147,49 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2191,42 +2226,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2512,7 +2511,7 @@
   <dimension ref="B1:Z228"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="R223" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="D232" sqref="D232"/>
@@ -2520,9 +2519,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="21" customWidth="1"/>
-    <col min="2" max="33" width="15.7109375" style="21" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="33" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2552,185 +2550,185 @@
       <c r="Y1" s="20"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="2:26" s="33" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+    <row r="4" spans="2:26" s="32" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="26"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="25"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="25"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="24"/>
     </row>
     <row r="6" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
       <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="2:26" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
       <c r="Z7" s="14"/>
     </row>
     <row r="8" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2763,7 +2761,7 @@
       <c r="Z8" s="11"/>
     </row>
     <row r="9" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2796,7 +2794,7 @@
       <c r="Z9" s="13"/>
     </row>
     <row r="10" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>234</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2829,7 +2827,7 @@
       <c r="Z10" s="13"/>
     </row>
     <row r="11" spans="2:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="39" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2838,61 +2836,61 @@
       <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="54"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="41"/>
     </row>
     <row r="12" spans="2:26" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="51"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
@@ -2925,7 +2923,7 @@
       <c r="W13" s="18"/>
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
-      <c r="Z13" s="34"/>
+      <c r="Z13" s="33"/>
     </row>
     <row r="14" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
@@ -2958,7 +2956,7 @@
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
-      <c r="Z14" s="34"/>
+      <c r="Z14" s="33"/>
     </row>
     <row r="15" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
@@ -2991,7 +2989,7 @@
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
-      <c r="Z15" s="34"/>
+      <c r="Z15" s="33"/>
     </row>
     <row r="16" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
@@ -3024,7 +3022,7 @@
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
-      <c r="Z16" s="34"/>
+      <c r="Z16" s="33"/>
     </row>
     <row r="17" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
@@ -3057,7 +3055,7 @@
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
-      <c r="Z17" s="34"/>
+      <c r="Z17" s="33"/>
     </row>
     <row r="18" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
@@ -3090,7 +3088,7 @@
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
-      <c r="Z18" s="34"/>
+      <c r="Z18" s="33"/>
     </row>
     <row r="19" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
@@ -3123,7 +3121,7 @@
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
-      <c r="Z19" s="34"/>
+      <c r="Z19" s="33"/>
     </row>
     <row r="20" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
@@ -3156,7 +3154,7 @@
       <c r="W20" s="18"/>
       <c r="X20" s="18"/>
       <c r="Y20" s="18"/>
-      <c r="Z20" s="34"/>
+      <c r="Z20" s="33"/>
     </row>
     <row r="21" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
@@ -3189,7 +3187,7 @@
       <c r="W21" s="18"/>
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
-      <c r="Z21" s="34"/>
+      <c r="Z21" s="33"/>
     </row>
     <row r="22" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
@@ -3222,7 +3220,7 @@
       <c r="W22" s="18"/>
       <c r="X22" s="18"/>
       <c r="Y22" s="18"/>
-      <c r="Z22" s="34"/>
+      <c r="Z22" s="33"/>
     </row>
     <row r="23" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
@@ -3255,7 +3253,7 @@
       <c r="W23" s="18"/>
       <c r="X23" s="18"/>
       <c r="Y23" s="18"/>
-      <c r="Z23" s="34"/>
+      <c r="Z23" s="33"/>
     </row>
     <row r="24" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
@@ -3288,7 +3286,7 @@
       <c r="W24" s="18"/>
       <c r="X24" s="18"/>
       <c r="Y24" s="18"/>
-      <c r="Z24" s="34"/>
+      <c r="Z24" s="33"/>
     </row>
     <row r="25" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
@@ -3321,7 +3319,7 @@
       <c r="W25" s="18"/>
       <c r="X25" s="18"/>
       <c r="Y25" s="18"/>
-      <c r="Z25" s="34"/>
+      <c r="Z25" s="33"/>
     </row>
     <row r="26" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
@@ -3354,7 +3352,7 @@
       <c r="W26" s="18"/>
       <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
-      <c r="Z26" s="34"/>
+      <c r="Z26" s="33"/>
     </row>
     <row r="27" spans="2:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
@@ -3387,7 +3385,7 @@
       <c r="W27" s="19"/>
       <c r="X27" s="19"/>
       <c r="Y27" s="19"/>
-      <c r="Z27" s="35"/>
+      <c r="Z27" s="34"/>
     </row>
     <row r="28" spans="2:26" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" s="17" t="s">
@@ -3420,7 +3418,7 @@
       <c r="W28" s="18"/>
       <c r="X28" s="18"/>
       <c r="Y28" s="18"/>
-      <c r="Z28" s="34"/>
+      <c r="Z28" s="33"/>
     </row>
     <row r="29" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
@@ -3453,7 +3451,7 @@
       <c r="W29" s="18"/>
       <c r="X29" s="18"/>
       <c r="Y29" s="18"/>
-      <c r="Z29" s="34"/>
+      <c r="Z29" s="33"/>
     </row>
     <row r="30" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
@@ -3486,7 +3484,7 @@
       <c r="W30" s="18"/>
       <c r="X30" s="18"/>
       <c r="Y30" s="18"/>
-      <c r="Z30" s="34"/>
+      <c r="Z30" s="33"/>
     </row>
     <row r="31" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
@@ -3519,7 +3517,7 @@
       <c r="W31" s="18"/>
       <c r="X31" s="18"/>
       <c r="Y31" s="18"/>
-      <c r="Z31" s="34"/>
+      <c r="Z31" s="33"/>
     </row>
     <row r="32" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
@@ -3552,7 +3550,7 @@
       <c r="W32" s="18"/>
       <c r="X32" s="18"/>
       <c r="Y32" s="18"/>
-      <c r="Z32" s="34"/>
+      <c r="Z32" s="33"/>
     </row>
     <row r="33" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
@@ -3585,7 +3583,7 @@
       <c r="W33" s="18"/>
       <c r="X33" s="18"/>
       <c r="Y33" s="18"/>
-      <c r="Z33" s="34"/>
+      <c r="Z33" s="33"/>
     </row>
     <row r="34" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
@@ -3618,7 +3616,7 @@
       <c r="W34" s="18"/>
       <c r="X34" s="18"/>
       <c r="Y34" s="18"/>
-      <c r="Z34" s="34"/>
+      <c r="Z34" s="33"/>
     </row>
     <row r="35" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
@@ -3651,7 +3649,7 @@
       <c r="W35" s="18"/>
       <c r="X35" s="18"/>
       <c r="Y35" s="18"/>
-      <c r="Z35" s="34"/>
+      <c r="Z35" s="33"/>
     </row>
     <row r="36" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
@@ -3684,7 +3682,7 @@
       <c r="W36" s="18"/>
       <c r="X36" s="18"/>
       <c r="Y36" s="18"/>
-      <c r="Z36" s="34"/>
+      <c r="Z36" s="33"/>
     </row>
     <row r="37" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
@@ -3717,7 +3715,7 @@
       <c r="W37" s="18"/>
       <c r="X37" s="18"/>
       <c r="Y37" s="18"/>
-      <c r="Z37" s="34"/>
+      <c r="Z37" s="33"/>
     </row>
     <row r="38" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
@@ -3750,7 +3748,7 @@
       <c r="W38" s="18"/>
       <c r="X38" s="18"/>
       <c r="Y38" s="18"/>
-      <c r="Z38" s="34"/>
+      <c r="Z38" s="33"/>
     </row>
     <row r="39" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
@@ -3783,7 +3781,7 @@
       <c r="W39" s="18"/>
       <c r="X39" s="18"/>
       <c r="Y39" s="18"/>
-      <c r="Z39" s="34"/>
+      <c r="Z39" s="33"/>
     </row>
     <row r="40" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
@@ -3816,7 +3814,7 @@
       <c r="W40" s="18"/>
       <c r="X40" s="18"/>
       <c r="Y40" s="18"/>
-      <c r="Z40" s="34"/>
+      <c r="Z40" s="33"/>
     </row>
     <row r="41" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="s">
@@ -3849,7 +3847,7 @@
       <c r="W41" s="18"/>
       <c r="X41" s="18"/>
       <c r="Y41" s="18"/>
-      <c r="Z41" s="34"/>
+      <c r="Z41" s="33"/>
     </row>
     <row r="42" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="s">
@@ -3882,7 +3880,7 @@
       <c r="W42" s="18"/>
       <c r="X42" s="18"/>
       <c r="Y42" s="18"/>
-      <c r="Z42" s="34"/>
+      <c r="Z42" s="33"/>
     </row>
     <row r="43" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="15" t="s">
@@ -3915,7 +3913,7 @@
       <c r="W43" s="18"/>
       <c r="X43" s="18"/>
       <c r="Y43" s="18"/>
-      <c r="Z43" s="34"/>
+      <c r="Z43" s="33"/>
     </row>
     <row r="44" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="s">
@@ -3948,7 +3946,7 @@
       <c r="W44" s="18"/>
       <c r="X44" s="18"/>
       <c r="Y44" s="18"/>
-      <c r="Z44" s="34"/>
+      <c r="Z44" s="33"/>
     </row>
     <row r="45" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
@@ -3981,7 +3979,7 @@
       <c r="W45" s="18"/>
       <c r="X45" s="18"/>
       <c r="Y45" s="18"/>
-      <c r="Z45" s="34"/>
+      <c r="Z45" s="33"/>
     </row>
     <row r="46" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
@@ -4014,7 +4012,7 @@
       <c r="W46" s="18"/>
       <c r="X46" s="18"/>
       <c r="Y46" s="18"/>
-      <c r="Z46" s="34"/>
+      <c r="Z46" s="33"/>
     </row>
     <row r="47" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
@@ -4047,7 +4045,7 @@
       <c r="W47" s="18"/>
       <c r="X47" s="18"/>
       <c r="Y47" s="18"/>
-      <c r="Z47" s="34"/>
+      <c r="Z47" s="33"/>
     </row>
     <row r="48" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
@@ -4080,7 +4078,7 @@
       <c r="W48" s="18"/>
       <c r="X48" s="18"/>
       <c r="Y48" s="18"/>
-      <c r="Z48" s="34"/>
+      <c r="Z48" s="33"/>
     </row>
     <row r="49" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="s">
@@ -4113,7 +4111,7 @@
       <c r="W49" s="18"/>
       <c r="X49" s="18"/>
       <c r="Y49" s="18"/>
-      <c r="Z49" s="34"/>
+      <c r="Z49" s="33"/>
     </row>
     <row r="50" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
@@ -4146,7 +4144,7 @@
       <c r="W50" s="18"/>
       <c r="X50" s="18"/>
       <c r="Y50" s="18"/>
-      <c r="Z50" s="34"/>
+      <c r="Z50" s="33"/>
     </row>
     <row r="51" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="15" t="s">
@@ -4179,7 +4177,7 @@
       <c r="W51" s="18"/>
       <c r="X51" s="18"/>
       <c r="Y51" s="18"/>
-      <c r="Z51" s="34"/>
+      <c r="Z51" s="33"/>
     </row>
     <row r="52" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="s">
@@ -4212,7 +4210,7 @@
       <c r="W52" s="18"/>
       <c r="X52" s="18"/>
       <c r="Y52" s="18"/>
-      <c r="Z52" s="34"/>
+      <c r="Z52" s="33"/>
     </row>
     <row r="53" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="s">
@@ -4245,7 +4243,7 @@
       <c r="W53" s="18"/>
       <c r="X53" s="18"/>
       <c r="Y53" s="18"/>
-      <c r="Z53" s="34"/>
+      <c r="Z53" s="33"/>
     </row>
     <row r="54" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="s">
@@ -4278,7 +4276,7 @@
       <c r="W54" s="18"/>
       <c r="X54" s="18"/>
       <c r="Y54" s="18"/>
-      <c r="Z54" s="34"/>
+      <c r="Z54" s="33"/>
     </row>
     <row r="55" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="15" t="s">
@@ -4311,7 +4309,7 @@
       <c r="W55" s="18"/>
       <c r="X55" s="18"/>
       <c r="Y55" s="18"/>
-      <c r="Z55" s="34"/>
+      <c r="Z55" s="33"/>
     </row>
     <row r="56" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="15" t="s">
@@ -4344,7 +4342,7 @@
       <c r="W56" s="18"/>
       <c r="X56" s="18"/>
       <c r="Y56" s="18"/>
-      <c r="Z56" s="34"/>
+      <c r="Z56" s="33"/>
     </row>
     <row r="57" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="15" t="s">
@@ -4377,7 +4375,7 @@
       <c r="W57" s="18"/>
       <c r="X57" s="18"/>
       <c r="Y57" s="18"/>
-      <c r="Z57" s="34"/>
+      <c r="Z57" s="33"/>
     </row>
     <row r="58" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="15" t="s">
@@ -4410,7 +4408,7 @@
       <c r="W58" s="18"/>
       <c r="X58" s="18"/>
       <c r="Y58" s="18"/>
-      <c r="Z58" s="34"/>
+      <c r="Z58" s="33"/>
     </row>
     <row r="59" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
@@ -4443,7 +4441,7 @@
       <c r="W59" s="18"/>
       <c r="X59" s="18"/>
       <c r="Y59" s="18"/>
-      <c r="Z59" s="34"/>
+      <c r="Z59" s="33"/>
     </row>
     <row r="60" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
@@ -4476,7 +4474,7 @@
       <c r="W60" s="18"/>
       <c r="X60" s="18"/>
       <c r="Y60" s="18"/>
-      <c r="Z60" s="34"/>
+      <c r="Z60" s="33"/>
     </row>
     <row r="61" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="15" t="s">
@@ -4509,7 +4507,7 @@
       <c r="W61" s="18"/>
       <c r="X61" s="18"/>
       <c r="Y61" s="18"/>
-      <c r="Z61" s="34"/>
+      <c r="Z61" s="33"/>
     </row>
     <row r="62" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="s">
@@ -4542,7 +4540,7 @@
       <c r="W62" s="18"/>
       <c r="X62" s="18"/>
       <c r="Y62" s="18"/>
-      <c r="Z62" s="34"/>
+      <c r="Z62" s="33"/>
     </row>
     <row r="63" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
@@ -4575,7 +4573,7 @@
       <c r="W63" s="18"/>
       <c r="X63" s="18"/>
       <c r="Y63" s="18"/>
-      <c r="Z63" s="34"/>
+      <c r="Z63" s="33"/>
     </row>
     <row r="64" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
@@ -4608,7 +4606,7 @@
       <c r="W64" s="18"/>
       <c r="X64" s="18"/>
       <c r="Y64" s="18"/>
-      <c r="Z64" s="34"/>
+      <c r="Z64" s="33"/>
     </row>
     <row r="65" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="15" t="s">
@@ -4641,7 +4639,7 @@
       <c r="W65" s="18"/>
       <c r="X65" s="18"/>
       <c r="Y65" s="18"/>
-      <c r="Z65" s="34"/>
+      <c r="Z65" s="33"/>
     </row>
     <row r="66" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="15" t="s">
@@ -4674,7 +4672,7 @@
       <c r="W66" s="18"/>
       <c r="X66" s="18"/>
       <c r="Y66" s="18"/>
-      <c r="Z66" s="34"/>
+      <c r="Z66" s="33"/>
     </row>
     <row r="67" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="s">
@@ -4707,7 +4705,7 @@
       <c r="W67" s="18"/>
       <c r="X67" s="18"/>
       <c r="Y67" s="18"/>
-      <c r="Z67" s="34"/>
+      <c r="Z67" s="33"/>
     </row>
     <row r="68" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="15" t="s">
@@ -4740,7 +4738,7 @@
       <c r="W68" s="18"/>
       <c r="X68" s="18"/>
       <c r="Y68" s="18"/>
-      <c r="Z68" s="34"/>
+      <c r="Z68" s="33"/>
     </row>
     <row r="69" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="s">
@@ -4773,7 +4771,7 @@
       <c r="W69" s="18"/>
       <c r="X69" s="18"/>
       <c r="Y69" s="18"/>
-      <c r="Z69" s="34"/>
+      <c r="Z69" s="33"/>
     </row>
     <row r="70" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
@@ -4806,7 +4804,7 @@
       <c r="W70" s="18"/>
       <c r="X70" s="18"/>
       <c r="Y70" s="18"/>
-      <c r="Z70" s="34"/>
+      <c r="Z70" s="33"/>
     </row>
     <row r="71" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
@@ -4839,7 +4837,7 @@
       <c r="W71" s="18"/>
       <c r="X71" s="18"/>
       <c r="Y71" s="18"/>
-      <c r="Z71" s="34"/>
+      <c r="Z71" s="33"/>
     </row>
     <row r="72" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="15" t="s">
@@ -4872,7 +4870,7 @@
       <c r="W72" s="18"/>
       <c r="X72" s="18"/>
       <c r="Y72" s="18"/>
-      <c r="Z72" s="34"/>
+      <c r="Z72" s="33"/>
     </row>
     <row r="73" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="15" t="s">
@@ -4905,7 +4903,7 @@
       <c r="W73" s="18"/>
       <c r="X73" s="18"/>
       <c r="Y73" s="18"/>
-      <c r="Z73" s="34"/>
+      <c r="Z73" s="33"/>
     </row>
     <row r="74" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="15" t="s">
@@ -4938,7 +4936,7 @@
       <c r="W74" s="18"/>
       <c r="X74" s="18"/>
       <c r="Y74" s="18"/>
-      <c r="Z74" s="34"/>
+      <c r="Z74" s="33"/>
     </row>
     <row r="75" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="s">
@@ -4971,7 +4969,7 @@
       <c r="W75" s="18"/>
       <c r="X75" s="18"/>
       <c r="Y75" s="18"/>
-      <c r="Z75" s="34"/>
+      <c r="Z75" s="33"/>
     </row>
     <row r="76" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="15" t="s">
@@ -5004,7 +5002,7 @@
       <c r="W76" s="18"/>
       <c r="X76" s="18"/>
       <c r="Y76" s="18"/>
-      <c r="Z76" s="34"/>
+      <c r="Z76" s="33"/>
     </row>
     <row r="77" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="15" t="s">
@@ -5037,7 +5035,7 @@
       <c r="W77" s="18"/>
       <c r="X77" s="18"/>
       <c r="Y77" s="18"/>
-      <c r="Z77" s="34"/>
+      <c r="Z77" s="33"/>
     </row>
     <row r="78" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="15" t="s">
@@ -5070,7 +5068,7 @@
       <c r="W78" s="18"/>
       <c r="X78" s="18"/>
       <c r="Y78" s="18"/>
-      <c r="Z78" s="34"/>
+      <c r="Z78" s="33"/>
     </row>
     <row r="79" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="15" t="s">
@@ -5103,7 +5101,7 @@
       <c r="W79" s="18"/>
       <c r="X79" s="18"/>
       <c r="Y79" s="18"/>
-      <c r="Z79" s="34"/>
+      <c r="Z79" s="33"/>
     </row>
     <row r="80" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="15" t="s">
@@ -5136,7 +5134,7 @@
       <c r="W80" s="18"/>
       <c r="X80" s="18"/>
       <c r="Y80" s="18"/>
-      <c r="Z80" s="34"/>
+      <c r="Z80" s="33"/>
     </row>
     <row r="81" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="15" t="s">
@@ -5169,7 +5167,7 @@
       <c r="W81" s="18"/>
       <c r="X81" s="18"/>
       <c r="Y81" s="18"/>
-      <c r="Z81" s="34"/>
+      <c r="Z81" s="33"/>
     </row>
     <row r="82" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="15" t="s">
@@ -5202,7 +5200,7 @@
       <c r="W82" s="18"/>
       <c r="X82" s="18"/>
       <c r="Y82" s="18"/>
-      <c r="Z82" s="34"/>
+      <c r="Z82" s="33"/>
     </row>
     <row r="83" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="15" t="s">
@@ -5235,7 +5233,7 @@
       <c r="W83" s="18"/>
       <c r="X83" s="18"/>
       <c r="Y83" s="18"/>
-      <c r="Z83" s="34"/>
+      <c r="Z83" s="33"/>
     </row>
     <row r="84" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="15" t="s">
@@ -5268,7 +5266,7 @@
       <c r="W84" s="18"/>
       <c r="X84" s="18"/>
       <c r="Y84" s="18"/>
-      <c r="Z84" s="34"/>
+      <c r="Z84" s="33"/>
     </row>
     <row r="85" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="15" t="s">
@@ -5301,7 +5299,7 @@
       <c r="W85" s="18"/>
       <c r="X85" s="18"/>
       <c r="Y85" s="18"/>
-      <c r="Z85" s="34"/>
+      <c r="Z85" s="33"/>
     </row>
     <row r="86" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="15" t="s">
@@ -5334,7 +5332,7 @@
       <c r="W86" s="18"/>
       <c r="X86" s="18"/>
       <c r="Y86" s="18"/>
-      <c r="Z86" s="34"/>
+      <c r="Z86" s="33"/>
     </row>
     <row r="87" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="15" t="s">
@@ -5367,7 +5365,7 @@
       <c r="W87" s="18"/>
       <c r="X87" s="18"/>
       <c r="Y87" s="18"/>
-      <c r="Z87" s="34"/>
+      <c r="Z87" s="33"/>
     </row>
     <row r="88" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="15" t="s">
@@ -5400,7 +5398,7 @@
       <c r="W88" s="18"/>
       <c r="X88" s="18"/>
       <c r="Y88" s="18"/>
-      <c r="Z88" s="34"/>
+      <c r="Z88" s="33"/>
     </row>
     <row r="89" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="15" t="s">
@@ -5433,7 +5431,7 @@
       <c r="W89" s="18"/>
       <c r="X89" s="18"/>
       <c r="Y89" s="18"/>
-      <c r="Z89" s="34"/>
+      <c r="Z89" s="33"/>
     </row>
     <row r="90" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="15" t="s">
@@ -5466,7 +5464,7 @@
       <c r="W90" s="18"/>
       <c r="X90" s="18"/>
       <c r="Y90" s="18"/>
-      <c r="Z90" s="34"/>
+      <c r="Z90" s="33"/>
     </row>
     <row r="91" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="15" t="s">
@@ -5499,7 +5497,7 @@
       <c r="W91" s="18"/>
       <c r="X91" s="18"/>
       <c r="Y91" s="18"/>
-      <c r="Z91" s="34"/>
+      <c r="Z91" s="33"/>
     </row>
     <row r="92" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="15" t="s">
@@ -5532,7 +5530,7 @@
       <c r="W92" s="18"/>
       <c r="X92" s="18"/>
       <c r="Y92" s="18"/>
-      <c r="Z92" s="34"/>
+      <c r="Z92" s="33"/>
     </row>
     <row r="93" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="15" t="s">
@@ -5565,7 +5563,7 @@
       <c r="W93" s="18"/>
       <c r="X93" s="18"/>
       <c r="Y93" s="18"/>
-      <c r="Z93" s="34"/>
+      <c r="Z93" s="33"/>
     </row>
     <row r="94" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="s">
@@ -5598,7 +5596,7 @@
       <c r="W94" s="18"/>
       <c r="X94" s="18"/>
       <c r="Y94" s="18"/>
-      <c r="Z94" s="34"/>
+      <c r="Z94" s="33"/>
     </row>
     <row r="95" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="s">
@@ -5631,7 +5629,7 @@
       <c r="W95" s="18"/>
       <c r="X95" s="18"/>
       <c r="Y95" s="18"/>
-      <c r="Z95" s="34"/>
+      <c r="Z95" s="33"/>
     </row>
     <row r="96" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="15" t="s">
@@ -5664,7 +5662,7 @@
       <c r="W96" s="18"/>
       <c r="X96" s="18"/>
       <c r="Y96" s="18"/>
-      <c r="Z96" s="34"/>
+      <c r="Z96" s="33"/>
     </row>
     <row r="97" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="15" t="s">
@@ -5697,7 +5695,7 @@
       <c r="W97" s="18"/>
       <c r="X97" s="18"/>
       <c r="Y97" s="18"/>
-      <c r="Z97" s="34"/>
+      <c r="Z97" s="33"/>
     </row>
     <row r="98" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="15" t="s">
@@ -5730,7 +5728,7 @@
       <c r="W98" s="18"/>
       <c r="X98" s="18"/>
       <c r="Y98" s="18"/>
-      <c r="Z98" s="34"/>
+      <c r="Z98" s="33"/>
     </row>
     <row r="99" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="15" t="s">
@@ -5763,7 +5761,7 @@
       <c r="W99" s="18"/>
       <c r="X99" s="18"/>
       <c r="Y99" s="18"/>
-      <c r="Z99" s="34"/>
+      <c r="Z99" s="33"/>
     </row>
     <row r="100" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="15" t="s">
@@ -5796,7 +5794,7 @@
       <c r="W100" s="18"/>
       <c r="X100" s="18"/>
       <c r="Y100" s="18"/>
-      <c r="Z100" s="34"/>
+      <c r="Z100" s="33"/>
     </row>
     <row r="101" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="15" t="s">
@@ -5829,7 +5827,7 @@
       <c r="W101" s="18"/>
       <c r="X101" s="18"/>
       <c r="Y101" s="18"/>
-      <c r="Z101" s="34"/>
+      <c r="Z101" s="33"/>
     </row>
     <row r="102" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="15" t="s">
@@ -5862,7 +5860,7 @@
       <c r="W102" s="18"/>
       <c r="X102" s="18"/>
       <c r="Y102" s="18"/>
-      <c r="Z102" s="34"/>
+      <c r="Z102" s="33"/>
     </row>
     <row r="103" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="15" t="s">
@@ -5895,7 +5893,7 @@
       <c r="W103" s="18"/>
       <c r="X103" s="18"/>
       <c r="Y103" s="18"/>
-      <c r="Z103" s="34"/>
+      <c r="Z103" s="33"/>
     </row>
     <row r="104" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="15" t="s">
@@ -5928,7 +5926,7 @@
       <c r="W104" s="18"/>
       <c r="X104" s="18"/>
       <c r="Y104" s="18"/>
-      <c r="Z104" s="34"/>
+      <c r="Z104" s="33"/>
     </row>
     <row r="105" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="15" t="s">
@@ -5961,7 +5959,7 @@
       <c r="W105" s="18"/>
       <c r="X105" s="18"/>
       <c r="Y105" s="18"/>
-      <c r="Z105" s="34"/>
+      <c r="Z105" s="33"/>
     </row>
     <row r="106" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="15" t="s">
@@ -5994,7 +5992,7 @@
       <c r="W106" s="18"/>
       <c r="X106" s="18"/>
       <c r="Y106" s="18"/>
-      <c r="Z106" s="34"/>
+      <c r="Z106" s="33"/>
     </row>
     <row r="107" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="15" t="s">
@@ -6027,7 +6025,7 @@
       <c r="W107" s="18"/>
       <c r="X107" s="18"/>
       <c r="Y107" s="18"/>
-      <c r="Z107" s="34"/>
+      <c r="Z107" s="33"/>
     </row>
     <row r="108" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="15" t="s">
@@ -6060,7 +6058,7 @@
       <c r="W108" s="18"/>
       <c r="X108" s="18"/>
       <c r="Y108" s="18"/>
-      <c r="Z108" s="34"/>
+      <c r="Z108" s="33"/>
     </row>
     <row r="109" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="15" t="s">
@@ -6093,7 +6091,7 @@
       <c r="W109" s="18"/>
       <c r="X109" s="18"/>
       <c r="Y109" s="18"/>
-      <c r="Z109" s="34"/>
+      <c r="Z109" s="33"/>
     </row>
     <row r="110" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="15" t="s">
@@ -6126,7 +6124,7 @@
       <c r="W110" s="18"/>
       <c r="X110" s="18"/>
       <c r="Y110" s="18"/>
-      <c r="Z110" s="34"/>
+      <c r="Z110" s="33"/>
     </row>
     <row r="111" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="15" t="s">
@@ -6159,7 +6157,7 @@
       <c r="W111" s="18"/>
       <c r="X111" s="18"/>
       <c r="Y111" s="18"/>
-      <c r="Z111" s="34"/>
+      <c r="Z111" s="33"/>
     </row>
     <row r="112" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="15" t="s">
@@ -6192,7 +6190,7 @@
       <c r="W112" s="18"/>
       <c r="X112" s="18"/>
       <c r="Y112" s="18"/>
-      <c r="Z112" s="34"/>
+      <c r="Z112" s="33"/>
     </row>
     <row r="113" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="15" t="s">
@@ -6225,7 +6223,7 @@
       <c r="W113" s="18"/>
       <c r="X113" s="18"/>
       <c r="Y113" s="18"/>
-      <c r="Z113" s="34"/>
+      <c r="Z113" s="33"/>
     </row>
     <row r="114" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="15" t="s">
@@ -6258,7 +6256,7 @@
       <c r="W114" s="18"/>
       <c r="X114" s="18"/>
       <c r="Y114" s="18"/>
-      <c r="Z114" s="34"/>
+      <c r="Z114" s="33"/>
     </row>
     <row r="115" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="15" t="s">
@@ -6291,7 +6289,7 @@
       <c r="W115" s="18"/>
       <c r="X115" s="18"/>
       <c r="Y115" s="18"/>
-      <c r="Z115" s="34"/>
+      <c r="Z115" s="33"/>
     </row>
     <row r="116" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="15" t="s">
@@ -6324,7 +6322,7 @@
       <c r="W116" s="18"/>
       <c r="X116" s="18"/>
       <c r="Y116" s="18"/>
-      <c r="Z116" s="34"/>
+      <c r="Z116" s="33"/>
     </row>
     <row r="117" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="15" t="s">
@@ -6357,7 +6355,7 @@
       <c r="W117" s="18"/>
       <c r="X117" s="18"/>
       <c r="Y117" s="18"/>
-      <c r="Z117" s="34"/>
+      <c r="Z117" s="33"/>
     </row>
     <row r="118" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="15" t="s">
@@ -6390,7 +6388,7 @@
       <c r="W118" s="18"/>
       <c r="X118" s="18"/>
       <c r="Y118" s="18"/>
-      <c r="Z118" s="34"/>
+      <c r="Z118" s="33"/>
     </row>
     <row r="119" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="15" t="s">
@@ -6423,7 +6421,7 @@
       <c r="W119" s="18"/>
       <c r="X119" s="18"/>
       <c r="Y119" s="18"/>
-      <c r="Z119" s="34"/>
+      <c r="Z119" s="33"/>
     </row>
     <row r="120" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="15" t="s">
@@ -6456,7 +6454,7 @@
       <c r="W120" s="18"/>
       <c r="X120" s="18"/>
       <c r="Y120" s="18"/>
-      <c r="Z120" s="34"/>
+      <c r="Z120" s="33"/>
     </row>
     <row r="121" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="15" t="s">
@@ -6489,7 +6487,7 @@
       <c r="W121" s="18"/>
       <c r="X121" s="18"/>
       <c r="Y121" s="18"/>
-      <c r="Z121" s="34"/>
+      <c r="Z121" s="33"/>
     </row>
     <row r="122" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="15" t="s">
@@ -6522,7 +6520,7 @@
       <c r="W122" s="18"/>
       <c r="X122" s="18"/>
       <c r="Y122" s="18"/>
-      <c r="Z122" s="34"/>
+      <c r="Z122" s="33"/>
     </row>
     <row r="123" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="15" t="s">
@@ -6555,7 +6553,7 @@
       <c r="W123" s="18"/>
       <c r="X123" s="18"/>
       <c r="Y123" s="18"/>
-      <c r="Z123" s="34"/>
+      <c r="Z123" s="33"/>
     </row>
     <row r="124" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="15" t="s">
@@ -6588,7 +6586,7 @@
       <c r="W124" s="18"/>
       <c r="X124" s="18"/>
       <c r="Y124" s="18"/>
-      <c r="Z124" s="34"/>
+      <c r="Z124" s="33"/>
     </row>
     <row r="125" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="15" t="s">
@@ -6621,7 +6619,7 @@
       <c r="W125" s="18"/>
       <c r="X125" s="18"/>
       <c r="Y125" s="18"/>
-      <c r="Z125" s="34"/>
+      <c r="Z125" s="33"/>
     </row>
     <row r="126" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="15" t="s">
@@ -6654,7 +6652,7 @@
       <c r="W126" s="18"/>
       <c r="X126" s="18"/>
       <c r="Y126" s="18"/>
-      <c r="Z126" s="34"/>
+      <c r="Z126" s="33"/>
     </row>
     <row r="127" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="15" t="s">
@@ -6687,7 +6685,7 @@
       <c r="W127" s="18"/>
       <c r="X127" s="18"/>
       <c r="Y127" s="18"/>
-      <c r="Z127" s="34"/>
+      <c r="Z127" s="33"/>
     </row>
     <row r="128" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="15" t="s">
@@ -6720,7 +6718,7 @@
       <c r="W128" s="18"/>
       <c r="X128" s="18"/>
       <c r="Y128" s="18"/>
-      <c r="Z128" s="34"/>
+      <c r="Z128" s="33"/>
     </row>
     <row r="129" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="15" t="s">
@@ -6753,7 +6751,7 @@
       <c r="W129" s="18"/>
       <c r="X129" s="18"/>
       <c r="Y129" s="18"/>
-      <c r="Z129" s="34"/>
+      <c r="Z129" s="33"/>
     </row>
     <row r="130" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="15" t="s">
@@ -6786,7 +6784,7 @@
       <c r="W130" s="18"/>
       <c r="X130" s="18"/>
       <c r="Y130" s="18"/>
-      <c r="Z130" s="34"/>
+      <c r="Z130" s="33"/>
     </row>
     <row r="131" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="15" t="s">
@@ -6819,7 +6817,7 @@
       <c r="W131" s="18"/>
       <c r="X131" s="18"/>
       <c r="Y131" s="18"/>
-      <c r="Z131" s="34"/>
+      <c r="Z131" s="33"/>
     </row>
     <row r="132" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="15" t="s">
@@ -6852,7 +6850,7 @@
       <c r="W132" s="18"/>
       <c r="X132" s="18"/>
       <c r="Y132" s="18"/>
-      <c r="Z132" s="34"/>
+      <c r="Z132" s="33"/>
     </row>
     <row r="133" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="15" t="s">
@@ -6885,7 +6883,7 @@
       <c r="W133" s="18"/>
       <c r="X133" s="18"/>
       <c r="Y133" s="18"/>
-      <c r="Z133" s="34"/>
+      <c r="Z133" s="33"/>
     </row>
     <row r="134" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="15" t="s">
@@ -6918,7 +6916,7 @@
       <c r="W134" s="18"/>
       <c r="X134" s="18"/>
       <c r="Y134" s="18"/>
-      <c r="Z134" s="34"/>
+      <c r="Z134" s="33"/>
     </row>
     <row r="135" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="15" t="s">
@@ -6951,7 +6949,7 @@
       <c r="W135" s="18"/>
       <c r="X135" s="18"/>
       <c r="Y135" s="18"/>
-      <c r="Z135" s="34"/>
+      <c r="Z135" s="33"/>
     </row>
     <row r="136" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="15" t="s">
@@ -6984,7 +6982,7 @@
       <c r="W136" s="18"/>
       <c r="X136" s="18"/>
       <c r="Y136" s="18"/>
-      <c r="Z136" s="34"/>
+      <c r="Z136" s="33"/>
     </row>
     <row r="137" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="15" t="s">
@@ -7017,7 +7015,7 @@
       <c r="W137" s="18"/>
       <c r="X137" s="18"/>
       <c r="Y137" s="18"/>
-      <c r="Z137" s="34"/>
+      <c r="Z137" s="33"/>
     </row>
     <row r="138" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="15" t="s">
@@ -7050,7 +7048,7 @@
       <c r="W138" s="18"/>
       <c r="X138" s="18"/>
       <c r="Y138" s="18"/>
-      <c r="Z138" s="34"/>
+      <c r="Z138" s="33"/>
     </row>
     <row r="139" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="15" t="s">
@@ -7083,7 +7081,7 @@
       <c r="W139" s="18"/>
       <c r="X139" s="18"/>
       <c r="Y139" s="18"/>
-      <c r="Z139" s="34"/>
+      <c r="Z139" s="33"/>
     </row>
     <row r="140" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="15" t="s">
@@ -7116,7 +7114,7 @@
       <c r="W140" s="18"/>
       <c r="X140" s="18"/>
       <c r="Y140" s="18"/>
-      <c r="Z140" s="34"/>
+      <c r="Z140" s="33"/>
     </row>
     <row r="141" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="15" t="s">
@@ -7149,7 +7147,7 @@
       <c r="W141" s="18"/>
       <c r="X141" s="18"/>
       <c r="Y141" s="18"/>
-      <c r="Z141" s="34"/>
+      <c r="Z141" s="33"/>
     </row>
     <row r="142" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="15" t="s">
@@ -7182,7 +7180,7 @@
       <c r="W142" s="18"/>
       <c r="X142" s="18"/>
       <c r="Y142" s="18"/>
-      <c r="Z142" s="34"/>
+      <c r="Z142" s="33"/>
     </row>
     <row r="143" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="15" t="s">
@@ -7215,7 +7213,7 @@
       <c r="W143" s="18"/>
       <c r="X143" s="18"/>
       <c r="Y143" s="18"/>
-      <c r="Z143" s="34"/>
+      <c r="Z143" s="33"/>
     </row>
     <row r="144" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="15" t="s">
@@ -7248,7 +7246,7 @@
       <c r="W144" s="18"/>
       <c r="X144" s="18"/>
       <c r="Y144" s="18"/>
-      <c r="Z144" s="34"/>
+      <c r="Z144" s="33"/>
     </row>
     <row r="145" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="15" t="s">
@@ -7281,7 +7279,7 @@
       <c r="W145" s="18"/>
       <c r="X145" s="18"/>
       <c r="Y145" s="18"/>
-      <c r="Z145" s="34"/>
+      <c r="Z145" s="33"/>
     </row>
     <row r="146" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="15" t="s">
@@ -7314,7 +7312,7 @@
       <c r="W146" s="18"/>
       <c r="X146" s="18"/>
       <c r="Y146" s="18"/>
-      <c r="Z146" s="34"/>
+      <c r="Z146" s="33"/>
     </row>
     <row r="147" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="15" t="s">
@@ -7347,7 +7345,7 @@
       <c r="W147" s="18"/>
       <c r="X147" s="18"/>
       <c r="Y147" s="18"/>
-      <c r="Z147" s="34"/>
+      <c r="Z147" s="33"/>
     </row>
     <row r="148" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="15" t="s">
@@ -7380,7 +7378,7 @@
       <c r="W148" s="18"/>
       <c r="X148" s="18"/>
       <c r="Y148" s="18"/>
-      <c r="Z148" s="34"/>
+      <c r="Z148" s="33"/>
     </row>
     <row r="149" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="15" t="s">
@@ -7413,7 +7411,7 @@
       <c r="W149" s="18"/>
       <c r="X149" s="18"/>
       <c r="Y149" s="18"/>
-      <c r="Z149" s="34"/>
+      <c r="Z149" s="33"/>
     </row>
     <row r="150" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="15" t="s">
@@ -7446,7 +7444,7 @@
       <c r="W150" s="18"/>
       <c r="X150" s="18"/>
       <c r="Y150" s="18"/>
-      <c r="Z150" s="34"/>
+      <c r="Z150" s="33"/>
     </row>
     <row r="151" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="15" t="s">
@@ -7479,7 +7477,7 @@
       <c r="W151" s="18"/>
       <c r="X151" s="18"/>
       <c r="Y151" s="18"/>
-      <c r="Z151" s="34"/>
+      <c r="Z151" s="33"/>
     </row>
     <row r="152" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="15" t="s">
@@ -7512,7 +7510,7 @@
       <c r="W152" s="18"/>
       <c r="X152" s="18"/>
       <c r="Y152" s="18"/>
-      <c r="Z152" s="34"/>
+      <c r="Z152" s="33"/>
     </row>
     <row r="153" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="15" t="s">
@@ -7545,7 +7543,7 @@
       <c r="W153" s="18"/>
       <c r="X153" s="18"/>
       <c r="Y153" s="18"/>
-      <c r="Z153" s="34"/>
+      <c r="Z153" s="33"/>
     </row>
     <row r="154" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="15" t="s">
@@ -7578,7 +7576,7 @@
       <c r="W154" s="18"/>
       <c r="X154" s="18"/>
       <c r="Y154" s="18"/>
-      <c r="Z154" s="34"/>
+      <c r="Z154" s="33"/>
     </row>
     <row r="155" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="15" t="s">
@@ -7611,7 +7609,7 @@
       <c r="W155" s="18"/>
       <c r="X155" s="18"/>
       <c r="Y155" s="18"/>
-      <c r="Z155" s="34"/>
+      <c r="Z155" s="33"/>
     </row>
     <row r="156" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="15" t="s">
@@ -7644,7 +7642,7 @@
       <c r="W156" s="18"/>
       <c r="X156" s="18"/>
       <c r="Y156" s="18"/>
-      <c r="Z156" s="34"/>
+      <c r="Z156" s="33"/>
     </row>
     <row r="157" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="15" t="s">
@@ -7677,7 +7675,7 @@
       <c r="W157" s="18"/>
       <c r="X157" s="18"/>
       <c r="Y157" s="18"/>
-      <c r="Z157" s="34"/>
+      <c r="Z157" s="33"/>
     </row>
     <row r="158" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="15" t="s">
@@ -7710,7 +7708,7 @@
       <c r="W158" s="18"/>
       <c r="X158" s="18"/>
       <c r="Y158" s="18"/>
-      <c r="Z158" s="34"/>
+      <c r="Z158" s="33"/>
     </row>
     <row r="159" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="15" t="s">
@@ -7743,7 +7741,7 @@
       <c r="W159" s="18"/>
       <c r="X159" s="18"/>
       <c r="Y159" s="18"/>
-      <c r="Z159" s="34"/>
+      <c r="Z159" s="33"/>
     </row>
     <row r="160" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="15" t="s">
@@ -7776,7 +7774,7 @@
       <c r="W160" s="18"/>
       <c r="X160" s="18"/>
       <c r="Y160" s="18"/>
-      <c r="Z160" s="34"/>
+      <c r="Z160" s="33"/>
     </row>
     <row r="161" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="15" t="s">
@@ -7809,7 +7807,7 @@
       <c r="W161" s="18"/>
       <c r="X161" s="18"/>
       <c r="Y161" s="18"/>
-      <c r="Z161" s="34"/>
+      <c r="Z161" s="33"/>
     </row>
     <row r="162" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="15" t="s">
@@ -7842,7 +7840,7 @@
       <c r="W162" s="18"/>
       <c r="X162" s="18"/>
       <c r="Y162" s="18"/>
-      <c r="Z162" s="34"/>
+      <c r="Z162" s="33"/>
     </row>
     <row r="163" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="15" t="s">
@@ -7875,7 +7873,7 @@
       <c r="W163" s="18"/>
       <c r="X163" s="18"/>
       <c r="Y163" s="18"/>
-      <c r="Z163" s="34"/>
+      <c r="Z163" s="33"/>
     </row>
     <row r="164" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="15" t="s">
@@ -7908,7 +7906,7 @@
       <c r="W164" s="18"/>
       <c r="X164" s="18"/>
       <c r="Y164" s="18"/>
-      <c r="Z164" s="34"/>
+      <c r="Z164" s="33"/>
     </row>
     <row r="165" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="15" t="s">
@@ -7941,7 +7939,7 @@
       <c r="W165" s="18"/>
       <c r="X165" s="18"/>
       <c r="Y165" s="18"/>
-      <c r="Z165" s="34"/>
+      <c r="Z165" s="33"/>
     </row>
     <row r="166" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="15" t="s">
@@ -7974,7 +7972,7 @@
       <c r="W166" s="18"/>
       <c r="X166" s="18"/>
       <c r="Y166" s="18"/>
-      <c r="Z166" s="34"/>
+      <c r="Z166" s="33"/>
     </row>
     <row r="167" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="15" t="s">
@@ -8007,7 +8005,7 @@
       <c r="W167" s="18"/>
       <c r="X167" s="18"/>
       <c r="Y167" s="18"/>
-      <c r="Z167" s="34"/>
+      <c r="Z167" s="33"/>
     </row>
     <row r="168" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="15" t="s">
@@ -8040,7 +8038,7 @@
       <c r="W168" s="18"/>
       <c r="X168" s="18"/>
       <c r="Y168" s="18"/>
-      <c r="Z168" s="34"/>
+      <c r="Z168" s="33"/>
     </row>
     <row r="169" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="15" t="s">
@@ -8073,7 +8071,7 @@
       <c r="W169" s="18"/>
       <c r="X169" s="18"/>
       <c r="Y169" s="18"/>
-      <c r="Z169" s="34"/>
+      <c r="Z169" s="33"/>
     </row>
     <row r="170" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="15" t="s">
@@ -8106,7 +8104,7 @@
       <c r="W170" s="18"/>
       <c r="X170" s="18"/>
       <c r="Y170" s="18"/>
-      <c r="Z170" s="34"/>
+      <c r="Z170" s="33"/>
     </row>
     <row r="171" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="15" t="s">
@@ -8139,7 +8137,7 @@
       <c r="W171" s="18"/>
       <c r="X171" s="18"/>
       <c r="Y171" s="18"/>
-      <c r="Z171" s="34"/>
+      <c r="Z171" s="33"/>
     </row>
     <row r="172" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="15" t="s">
@@ -8172,7 +8170,7 @@
       <c r="W172" s="18"/>
       <c r="X172" s="18"/>
       <c r="Y172" s="18"/>
-      <c r="Z172" s="34"/>
+      <c r="Z172" s="33"/>
     </row>
     <row r="173" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="15" t="s">
@@ -8205,7 +8203,7 @@
       <c r="W173" s="18"/>
       <c r="X173" s="18"/>
       <c r="Y173" s="18"/>
-      <c r="Z173" s="34"/>
+      <c r="Z173" s="33"/>
     </row>
     <row r="174" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="15" t="s">
@@ -8238,7 +8236,7 @@
       <c r="W174" s="18"/>
       <c r="X174" s="18"/>
       <c r="Y174" s="18"/>
-      <c r="Z174" s="34"/>
+      <c r="Z174" s="33"/>
     </row>
     <row r="175" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="15" t="s">
@@ -8271,7 +8269,7 @@
       <c r="W175" s="18"/>
       <c r="X175" s="18"/>
       <c r="Y175" s="18"/>
-      <c r="Z175" s="34"/>
+      <c r="Z175" s="33"/>
     </row>
     <row r="176" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="15" t="s">
@@ -8304,7 +8302,7 @@
       <c r="W176" s="18"/>
       <c r="X176" s="18"/>
       <c r="Y176" s="18"/>
-      <c r="Z176" s="34"/>
+      <c r="Z176" s="33"/>
     </row>
     <row r="177" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="15" t="s">
@@ -8337,7 +8335,7 @@
       <c r="W177" s="18"/>
       <c r="X177" s="18"/>
       <c r="Y177" s="18"/>
-      <c r="Z177" s="34"/>
+      <c r="Z177" s="33"/>
     </row>
     <row r="178" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="15" t="s">
@@ -8370,7 +8368,7 @@
       <c r="W178" s="18"/>
       <c r="X178" s="18"/>
       <c r="Y178" s="18"/>
-      <c r="Z178" s="34"/>
+      <c r="Z178" s="33"/>
     </row>
     <row r="179" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="15" t="s">
@@ -8403,7 +8401,7 @@
       <c r="W179" s="18"/>
       <c r="X179" s="18"/>
       <c r="Y179" s="18"/>
-      <c r="Z179" s="34"/>
+      <c r="Z179" s="33"/>
     </row>
     <row r="180" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="15" t="s">
@@ -8436,7 +8434,7 @@
       <c r="W180" s="18"/>
       <c r="X180" s="18"/>
       <c r="Y180" s="18"/>
-      <c r="Z180" s="34"/>
+      <c r="Z180" s="33"/>
     </row>
     <row r="181" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="15" t="s">
@@ -8469,7 +8467,7 @@
       <c r="W181" s="18"/>
       <c r="X181" s="18"/>
       <c r="Y181" s="18"/>
-      <c r="Z181" s="34"/>
+      <c r="Z181" s="33"/>
     </row>
     <row r="182" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="15" t="s">
@@ -8502,7 +8500,7 @@
       <c r="W182" s="18"/>
       <c r="X182" s="18"/>
       <c r="Y182" s="18"/>
-      <c r="Z182" s="34"/>
+      <c r="Z182" s="33"/>
     </row>
     <row r="183" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="15" t="s">
@@ -8535,7 +8533,7 @@
       <c r="W183" s="18"/>
       <c r="X183" s="18"/>
       <c r="Y183" s="18"/>
-      <c r="Z183" s="34"/>
+      <c r="Z183" s="33"/>
     </row>
     <row r="184" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="15" t="s">
@@ -8568,7 +8566,7 @@
       <c r="W184" s="18"/>
       <c r="X184" s="18"/>
       <c r="Y184" s="18"/>
-      <c r="Z184" s="34"/>
+      <c r="Z184" s="33"/>
     </row>
     <row r="185" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="15" t="s">
@@ -8601,7 +8599,7 @@
       <c r="W185" s="18"/>
       <c r="X185" s="18"/>
       <c r="Y185" s="18"/>
-      <c r="Z185" s="34"/>
+      <c r="Z185" s="33"/>
     </row>
     <row r="186" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="15" t="s">
@@ -8634,7 +8632,7 @@
       <c r="W186" s="18"/>
       <c r="X186" s="18"/>
       <c r="Y186" s="18"/>
-      <c r="Z186" s="34"/>
+      <c r="Z186" s="33"/>
     </row>
     <row r="187" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="15" t="s">
@@ -8667,7 +8665,7 @@
       <c r="W187" s="18"/>
       <c r="X187" s="18"/>
       <c r="Y187" s="18"/>
-      <c r="Z187" s="34"/>
+      <c r="Z187" s="33"/>
     </row>
     <row r="188" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="15" t="s">
@@ -8700,7 +8698,7 @@
       <c r="W188" s="18"/>
       <c r="X188" s="18"/>
       <c r="Y188" s="18"/>
-      <c r="Z188" s="34"/>
+      <c r="Z188" s="33"/>
     </row>
     <row r="189" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="15" t="s">
@@ -8733,7 +8731,7 @@
       <c r="W189" s="18"/>
       <c r="X189" s="18"/>
       <c r="Y189" s="18"/>
-      <c r="Z189" s="34"/>
+      <c r="Z189" s="33"/>
     </row>
     <row r="190" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="15" t="s">
@@ -8766,7 +8764,7 @@
       <c r="W190" s="18"/>
       <c r="X190" s="18"/>
       <c r="Y190" s="18"/>
-      <c r="Z190" s="34"/>
+      <c r="Z190" s="33"/>
     </row>
     <row r="191" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="15" t="s">
@@ -8799,7 +8797,7 @@
       <c r="W191" s="18"/>
       <c r="X191" s="18"/>
       <c r="Y191" s="18"/>
-      <c r="Z191" s="34"/>
+      <c r="Z191" s="33"/>
     </row>
     <row r="192" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="15" t="s">
@@ -8832,7 +8830,7 @@
       <c r="W192" s="18"/>
       <c r="X192" s="18"/>
       <c r="Y192" s="18"/>
-      <c r="Z192" s="34"/>
+      <c r="Z192" s="33"/>
     </row>
     <row r="193" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="15" t="s">
@@ -8865,7 +8863,7 @@
       <c r="W193" s="18"/>
       <c r="X193" s="18"/>
       <c r="Y193" s="18"/>
-      <c r="Z193" s="34"/>
+      <c r="Z193" s="33"/>
     </row>
     <row r="194" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="15" t="s">
@@ -8898,7 +8896,7 @@
       <c r="W194" s="18"/>
       <c r="X194" s="18"/>
       <c r="Y194" s="18"/>
-      <c r="Z194" s="34"/>
+      <c r="Z194" s="33"/>
     </row>
     <row r="195" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="15" t="s">
@@ -8931,7 +8929,7 @@
       <c r="W195" s="18"/>
       <c r="X195" s="18"/>
       <c r="Y195" s="18"/>
-      <c r="Z195" s="34"/>
+      <c r="Z195" s="33"/>
     </row>
     <row r="196" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="15" t="s">
@@ -8964,7 +8962,7 @@
       <c r="W196" s="18"/>
       <c r="X196" s="18"/>
       <c r="Y196" s="18"/>
-      <c r="Z196" s="34"/>
+      <c r="Z196" s="33"/>
     </row>
     <row r="197" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="15" t="s">
@@ -8997,7 +8995,7 @@
       <c r="W197" s="18"/>
       <c r="X197" s="18"/>
       <c r="Y197" s="18"/>
-      <c r="Z197" s="34"/>
+      <c r="Z197" s="33"/>
     </row>
     <row r="198" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="15" t="s">
@@ -9030,7 +9028,7 @@
       <c r="W198" s="18"/>
       <c r="X198" s="18"/>
       <c r="Y198" s="18"/>
-      <c r="Z198" s="34"/>
+      <c r="Z198" s="33"/>
     </row>
     <row r="199" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="15" t="s">
@@ -9063,7 +9061,7 @@
       <c r="W199" s="18"/>
       <c r="X199" s="18"/>
       <c r="Y199" s="18"/>
-      <c r="Z199" s="34"/>
+      <c r="Z199" s="33"/>
     </row>
     <row r="200" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="15" t="s">
@@ -9096,7 +9094,7 @@
       <c r="W200" s="18"/>
       <c r="X200" s="18"/>
       <c r="Y200" s="18"/>
-      <c r="Z200" s="34"/>
+      <c r="Z200" s="33"/>
     </row>
     <row r="201" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="15" t="s">
@@ -9129,7 +9127,7 @@
       <c r="W201" s="18"/>
       <c r="X201" s="18"/>
       <c r="Y201" s="18"/>
-      <c r="Z201" s="34"/>
+      <c r="Z201" s="33"/>
     </row>
     <row r="202" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="15" t="s">
@@ -9162,7 +9160,7 @@
       <c r="W202" s="18"/>
       <c r="X202" s="18"/>
       <c r="Y202" s="18"/>
-      <c r="Z202" s="34"/>
+      <c r="Z202" s="33"/>
     </row>
     <row r="203" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="15" t="s">
@@ -9195,7 +9193,7 @@
       <c r="W203" s="18"/>
       <c r="X203" s="18"/>
       <c r="Y203" s="18"/>
-      <c r="Z203" s="34"/>
+      <c r="Z203" s="33"/>
     </row>
     <row r="204" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="15" t="s">
@@ -9228,7 +9226,7 @@
       <c r="W204" s="18"/>
       <c r="X204" s="18"/>
       <c r="Y204" s="18"/>
-      <c r="Z204" s="34"/>
+      <c r="Z204" s="33"/>
     </row>
     <row r="205" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="15" t="s">
@@ -9261,7 +9259,7 @@
       <c r="W205" s="18"/>
       <c r="X205" s="18"/>
       <c r="Y205" s="18"/>
-      <c r="Z205" s="34"/>
+      <c r="Z205" s="33"/>
     </row>
     <row r="206" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="15" t="s">
@@ -9294,7 +9292,7 @@
       <c r="W206" s="18"/>
       <c r="X206" s="18"/>
       <c r="Y206" s="18"/>
-      <c r="Z206" s="34"/>
+      <c r="Z206" s="33"/>
     </row>
     <row r="207" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="15" t="s">
@@ -9327,7 +9325,7 @@
       <c r="W207" s="18"/>
       <c r="X207" s="18"/>
       <c r="Y207" s="18"/>
-      <c r="Z207" s="34"/>
+      <c r="Z207" s="33"/>
     </row>
     <row r="208" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="15" t="s">
@@ -9360,7 +9358,7 @@
       <c r="W208" s="18"/>
       <c r="X208" s="18"/>
       <c r="Y208" s="18"/>
-      <c r="Z208" s="34"/>
+      <c r="Z208" s="33"/>
     </row>
     <row r="209" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="15" t="s">
@@ -9393,7 +9391,7 @@
       <c r="W209" s="18"/>
       <c r="X209" s="18"/>
       <c r="Y209" s="18"/>
-      <c r="Z209" s="34"/>
+      <c r="Z209" s="33"/>
     </row>
     <row r="210" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="15" t="s">
@@ -9426,7 +9424,7 @@
       <c r="W210" s="18"/>
       <c r="X210" s="18"/>
       <c r="Y210" s="18"/>
-      <c r="Z210" s="34"/>
+      <c r="Z210" s="33"/>
     </row>
     <row r="211" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="15" t="s">
@@ -9459,7 +9457,7 @@
       <c r="W211" s="18"/>
       <c r="X211" s="18"/>
       <c r="Y211" s="18"/>
-      <c r="Z211" s="34"/>
+      <c r="Z211" s="33"/>
     </row>
     <row r="212" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="15" t="s">
@@ -9492,7 +9490,7 @@
       <c r="W212" s="18"/>
       <c r="X212" s="18"/>
       <c r="Y212" s="18"/>
-      <c r="Z212" s="34"/>
+      <c r="Z212" s="33"/>
     </row>
     <row r="213" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="15" t="s">
@@ -9525,7 +9523,7 @@
       <c r="W213" s="18"/>
       <c r="X213" s="18"/>
       <c r="Y213" s="18"/>
-      <c r="Z213" s="34"/>
+      <c r="Z213" s="33"/>
     </row>
     <row r="214" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="15" t="s">
@@ -9558,7 +9556,7 @@
       <c r="W214" s="18"/>
       <c r="X214" s="18"/>
       <c r="Y214" s="18"/>
-      <c r="Z214" s="34"/>
+      <c r="Z214" s="33"/>
     </row>
     <row r="215" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="15" t="s">
@@ -9591,7 +9589,7 @@
       <c r="W215" s="18"/>
       <c r="X215" s="18"/>
       <c r="Y215" s="18"/>
-      <c r="Z215" s="34"/>
+      <c r="Z215" s="33"/>
     </row>
     <row r="216" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="15" t="s">
@@ -9624,7 +9622,7 @@
       <c r="W216" s="18"/>
       <c r="X216" s="18"/>
       <c r="Y216" s="18"/>
-      <c r="Z216" s="34"/>
+      <c r="Z216" s="33"/>
     </row>
     <row r="217" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="15" t="s">
@@ -9657,7 +9655,7 @@
       <c r="W217" s="18"/>
       <c r="X217" s="18"/>
       <c r="Y217" s="18"/>
-      <c r="Z217" s="34"/>
+      <c r="Z217" s="33"/>
     </row>
     <row r="218" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="15" t="s">
@@ -9690,7 +9688,7 @@
       <c r="W218" s="18"/>
       <c r="X218" s="18"/>
       <c r="Y218" s="18"/>
-      <c r="Z218" s="34"/>
+      <c r="Z218" s="33"/>
     </row>
     <row r="219" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="15" t="s">
@@ -9723,7 +9721,7 @@
       <c r="W219" s="18"/>
       <c r="X219" s="18"/>
       <c r="Y219" s="18"/>
-      <c r="Z219" s="34"/>
+      <c r="Z219" s="33"/>
     </row>
     <row r="220" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="15" t="s">
@@ -9756,7 +9754,7 @@
       <c r="W220" s="18"/>
       <c r="X220" s="18"/>
       <c r="Y220" s="18"/>
-      <c r="Z220" s="34"/>
+      <c r="Z220" s="33"/>
     </row>
     <row r="221" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="15" t="s">
@@ -9789,7 +9787,7 @@
       <c r="W221" s="18"/>
       <c r="X221" s="18"/>
       <c r="Y221" s="18"/>
-      <c r="Z221" s="34"/>
+      <c r="Z221" s="33"/>
     </row>
     <row r="222" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="15" t="s">
@@ -9822,7 +9820,7 @@
       <c r="W222" s="18"/>
       <c r="X222" s="18"/>
       <c r="Y222" s="18"/>
-      <c r="Z222" s="34"/>
+      <c r="Z222" s="33"/>
     </row>
     <row r="223" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="15" t="s">
@@ -9855,7 +9853,7 @@
       <c r="W223" s="18"/>
       <c r="X223" s="18"/>
       <c r="Y223" s="18"/>
-      <c r="Z223" s="34"/>
+      <c r="Z223" s="33"/>
     </row>
     <row r="224" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="15" t="s">
@@ -9888,7 +9886,7 @@
       <c r="W224" s="18"/>
       <c r="X224" s="18"/>
       <c r="Y224" s="18"/>
-      <c r="Z224" s="34"/>
+      <c r="Z224" s="33"/>
     </row>
     <row r="225" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="15" t="s">
@@ -9921,7 +9919,7 @@
       <c r="W225" s="18"/>
       <c r="X225" s="18"/>
       <c r="Y225" s="18"/>
-      <c r="Z225" s="34"/>
+      <c r="Z225" s="33"/>
     </row>
     <row r="226" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="15" t="s">
@@ -9954,7 +9952,7 @@
       <c r="W226" s="18"/>
       <c r="X226" s="18"/>
       <c r="Y226" s="18"/>
-      <c r="Z226" s="34"/>
+      <c r="Z226" s="33"/>
     </row>
     <row r="227" spans="2:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B227" s="16" t="s">
@@ -9987,40 +9985,40 @@
       <c r="W227" s="19"/>
       <c r="X227" s="19"/>
       <c r="Y227" s="19"/>
-      <c r="Z227" s="35"/>
+      <c r="Z227" s="34"/>
     </row>
     <row r="228" spans="2:26" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="55" t="s">
+      <c r="B228" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="C228" s="56" t="s">
+      <c r="C228" s="43" t="s">
         <v>457</v>
       </c>
-      <c r="D228" s="57" t="s">
+      <c r="D228" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E228" s="58"/>
-      <c r="F228" s="58"/>
-      <c r="G228" s="58"/>
-      <c r="H228" s="58"/>
-      <c r="I228" s="58"/>
-      <c r="J228" s="58"/>
-      <c r="K228" s="58"/>
-      <c r="L228" s="58"/>
-      <c r="M228" s="58"/>
-      <c r="N228" s="58"/>
-      <c r="O228" s="58"/>
-      <c r="P228" s="58"/>
-      <c r="Q228" s="58"/>
-      <c r="R228" s="58"/>
-      <c r="S228" s="58"/>
-      <c r="T228" s="58"/>
-      <c r="U228" s="58"/>
-      <c r="V228" s="58"/>
-      <c r="W228" s="58"/>
-      <c r="X228" s="58"/>
-      <c r="Y228" s="58"/>
-      <c r="Z228" s="59"/>
+      <c r="E228" s="45"/>
+      <c r="F228" s="45"/>
+      <c r="G228" s="45"/>
+      <c r="H228" s="45"/>
+      <c r="I228" s="45"/>
+      <c r="J228" s="45"/>
+      <c r="K228" s="45"/>
+      <c r="L228" s="45"/>
+      <c r="M228" s="45"/>
+      <c r="N228" s="45"/>
+      <c r="O228" s="45"/>
+      <c r="P228" s="45"/>
+      <c r="Q228" s="45"/>
+      <c r="R228" s="45"/>
+      <c r="S228" s="45"/>
+      <c r="T228" s="45"/>
+      <c r="U228" s="45"/>
+      <c r="V228" s="45"/>
+      <c r="W228" s="45"/>
+      <c r="X228" s="45"/>
+      <c r="Y228" s="45"/>
+      <c r="Z228" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">
